--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074973BB-DF4D-6246-BA2F-B6BA2B130672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FCFC0D-E5BC-204A-8E5E-99E9C23F550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>1.6000000238418579</v>
+        <v>1.8500000238418579</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>3655.9743712782624</v>
+        <v>4227.2203582782622</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
@@ -2235,7 +2235,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="190" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D7" s="196" t="s">
         <v>228</v>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0905426343282063</v>
+        <v>1.0919816493988037</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2294,7 +2294,7 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
@@ -2304,7 +2304,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>206</v>
@@ -2340,7 +2340,7 @@
         <v>205</v>
       </c>
       <c r="C17" s="194">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="189"/>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.39518386163419972</v>
+        <v>0.45632919428408231</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-4.3643786376072059E-2</v>
+        <v>-3.7795784824797167E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.8158913629865939E-2</v>
+        <v>5.9026034341940571E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2493,16 +2493,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.0375906025981765</v>
+        <v>1.0963282511917014</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.7293176709969611</v>
+        <v>1.8272137519861689</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.3834541367975688</v>
+        <v>1.4617710015889351</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6874,11 +6874,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>6569890.3354615448</v>
+        <v>6570100.0028072009</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22554385994421877</v>
+        <v>0.22551914443833954</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6899,7 +6899,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1355780507573421</v>
+        <v>3.1398157715988</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7875,11 +7875,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.39518386163419972</v>
+        <v>0.45632919428408231</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-1355.0854615436708</v>
+        <v>-1564.7528072001182</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="C92" s="176">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D92" s="207" t="s">
         <v>168</v>
@@ -8518,11 +8518,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-1724979.0752050038</v>
+        <v>-2349575.1627718704</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-0.75491955937582966</v>
+        <v>-1.0282676886323012</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8531,11 +8531,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2244.3367414474487</v>
+        <v>2247.298234462738</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>9.8221116319520364E-4</v>
+        <v>9.8350723051238609E-4</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8546,11 +8546,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5355648.2794028837</v>
+        <v>5362715.2737085465</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.3438450340496151</v>
+        <v>2.3469378322777374</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8565,19 +8565,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3628424.8674564324</v>
+        <v>3010892.8127022134</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.5879432635105901</v>
+        <v>1.3176866364149238</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>1.1909574476329425</v>
+        <v>0.98826497731119289</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.9849290793882377</v>
+        <v>1.6471082955186547</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8601,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2693916.1232968494</v>
+        <v>3669353.7358629857</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.1789650100845475</v>
+        <v>1.6058553667629465</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>0.88422375756341065</v>
+        <v>1.2043915250722099</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.4737062626056843</v>
+        <v>2.0073192084536831</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8637,19 +8637,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3161170.4953766409</v>
+        <v>3340123.2742825993</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>1.3834541367975688</v>
+        <v>1.4617710015889351</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.0375906025981765</v>
+        <v>1.0963282511917014</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.7293176709969611</v>
+        <v>1.8272137519861689</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FCFC0D-E5BC-204A-8E5E-99E9C23F550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{293E8A00-2AD9-468B-BBAF-CFFCEA2FDA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -824,16 +813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1288,7 +1277,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
@@ -1344,8 +1333,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,14 +1357,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1400,7 +1389,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1417,7 +1406,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1425,7 +1414,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1472,7 +1461,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1546,7 +1535,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1625,10 +1614,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,16 +1628,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,7 +1701,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,10 +1710,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,7 +1745,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1764,13 +1753,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1780,9 +1769,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2113,19 +2102,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2134,7 +2123,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2149,7 +2138,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>221</v>
       </c>
@@ -2162,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>1.8500000238418579</v>
+        <v>1.7999999523162842</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>222</v>
       </c>
@@ -2186,7 +2175,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2200,13 +2189,13 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>4227.2203582782622</v>
+        <v>4112.9709974434745</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2219,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>219</v>
       </c>
@@ -2245,15 +2234,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0919816493988037</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>217</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2272,7 +2261,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2286,7 +2275,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2298,8 +2287,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2335,7 +2324,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2344,8 +2333,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2360,7 +2349,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2376,7 +2365,7 @@
         <v>-5.9181858226133893E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2392,7 +2381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2404,7 +2393,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2417,10 +2406,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.45632919428408231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.44576829866540002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2433,10 +2422,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.7795784824797167E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-3.8691221623591315E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>218</v>
       </c>
@@ -2452,7 +2441,7 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2465,11 +2454,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>5.9026034341940571E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.0424446452753099E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2487,919 +2476,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.0963282511917014</v>
+        <v>1.0919693273475048</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.8272137519861689</v>
+        <v>1.8199488789125082</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.4617710015889351</v>
+        <v>1.4559591031300065</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3463,7 +3452,7 @@
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3471,7 +3460,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3479,7 +3468,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3496,7 +3485,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3522,13 +3511,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3578,7 +3567,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3606,7 +3595,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3657,7 +3646,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3685,7 +3674,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3736,7 +3725,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3764,7 +3753,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3815,7 +3804,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3837,7 +3826,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3888,7 +3877,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3910,7 +3899,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3932,7 +3921,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3954,7 +3943,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3982,7 +3971,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4004,7 +3993,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4055,7 +4044,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4106,7 +4095,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4157,7 +4146,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4208,7 +4197,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4259,7 +4248,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4310,7 +4299,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4361,7 +4350,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4390,7 +4379,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4411,7 +4400,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4432,7 +4421,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4461,7 +4450,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4490,7 +4479,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4519,7 +4508,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4548,7 +4537,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4599,7 +4588,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4628,7 +4617,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4657,7 +4646,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4678,7 +4667,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4729,7 +4718,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4780,7 +4769,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4798,7 +4787,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4849,7 +4838,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4900,7 +4889,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4951,7 +4940,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5002,7 +4991,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5053,7 +5042,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5104,7 +5093,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5155,7 +5144,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5173,7 +5162,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5224,7 +5213,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5275,7 +5264,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5292,7 +5281,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5342,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5392,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5442,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5492,1260 +5481,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6784,7 +6773,7 @@
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6793,11 +6782,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6813,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6836,7 +6825,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6852,7 +6841,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6867,18 +6856,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>6570100.0028072009</v>
+        <v>6570063.7894961247</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22551914443833954</v>
+        <v>0.22552341324948899</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6892,14 +6881,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1398157715988</v>
+        <v>3.1273148480829907</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6915,13 +6904,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6940,7 +6929,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6965,7 +6954,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6990,7 +6979,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7015,7 +7004,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7038,7 +7027,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7061,7 +7050,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7086,7 +7075,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7106,7 +7095,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7126,7 +7115,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7143,7 +7132,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7185,7 +7174,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7202,7 +7191,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7224,7 +7213,7 @@
         <v>670433</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7233,7 +7222,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7255,7 +7244,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7284,7 +7273,7 @@
         <v>7.732880115633562</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7317,7 +7306,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7350,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7391,7 +7380,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7410,7 +7399,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7434,7 +7423,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7456,7 +7445,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7481,7 +7470,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7506,7 +7495,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7529,7 +7518,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7553,7 +7542,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7577,7 +7566,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7596,7 +7585,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7615,7 +7604,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7634,7 +7623,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7653,7 +7642,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7675,7 +7664,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7684,7 +7673,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7703,7 +7692,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7722,7 +7711,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7752,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7782,7 +7771,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7808,7 +7797,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7835,20 +7824,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7865,7 +7854,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7875,18 +7864,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.45632919428408231</v>
+        <v>0.44576829866540002</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-1564.7528072001182</v>
+        <v>-1528.5394961236566</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7895,7 +7884,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7906,7 +7895,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7921,7 +7910,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7936,7 +7925,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7950,7 +7939,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7959,7 +7948,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7973,7 +7962,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7994,7 +7983,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8015,7 +8004,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8036,7 +8025,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8051,7 +8040,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8072,7 +8061,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8082,7 +8071,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8096,7 +8085,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8117,7 +8106,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8132,7 +8121,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8153,7 +8142,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8167,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8181,7 +8170,7 @@
       </c>
       <c r="F73" s="208"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8196,7 +8185,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8217,7 +8206,7 @@
         <v>0.39325092997635303</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8232,7 +8221,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8253,7 +8242,7 @@
         <v>0.24326660244029483</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8268,7 +8257,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8289,7 +8278,7 @@
         <v>9.5705744879944314E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8310,7 +8299,7 @@
         <v>0.57635255668591923</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8333,7 +8322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>2.3716125582531654E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8375,7 +8364,7 @@
         <v>-0.22481227614881466</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8407,7 +8396,7 @@
         <v>-0.16860920711161098</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8422,7 +8411,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8442,11 +8431,11 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8456,7 +8445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8466,7 +8455,7 @@
       <c r="E90" s="213"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8483,7 +8472,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8501,7 +8490,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8512,45 +8501,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-2349575.1627718704</v>
+        <v>-2340233.417551307</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-1.0282676886323012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1.024179368787105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2247.298234462738</v>
+        <v>2238.363135099411</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>9.8350723051238609E-4</v>
+        <v>9.7959687509341364E-4</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5362715.2737085465</v>
+        <v>5341393.4958096407</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.3469378322777374</v>
+        <v>2.3376065728973083</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8559,28 +8548,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3010892.8127022134</v>
+        <v>2998921.7151232343</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3176866364149238</v>
+        <v>1.3124476072351097</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>0.98826497731119289</v>
+        <v>0.9843357054263322</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.6471082955186547</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.6405595090438871</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8595,28 +8584,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>3669353.7358629857</v>
+        <v>3654764.6440698486</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.6058553667629465</v>
+        <v>1.5994705990249034</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.2043915250722099</v>
+        <v>1.1996029492686775</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.0073192084536831</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.9993382487811293</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>224</v>
       </c>
@@ -8631,28 +8620,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3340123.2742825993</v>
+        <v>3326843.1795965414</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>1.4617710015889351</v>
+        <v>1.4559591031300065</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.0963282511917014</v>
+        <v>1.0919693273475048</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.8272137519861689</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.8199488789125082</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{293E8A00-2AD9-468B-BBAF-CFFCEA2FDA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{779B18B9-1EDB-B948-81BD-EFC316AB50A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -813,16 +824,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1277,7 +1288,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
@@ -1333,8 +1344,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,14 +1368,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1389,7 +1400,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1417,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1414,7 +1425,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,7 +1472,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1546,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1614,10 +1625,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,16 +1639,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,7 +1712,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,10 +1721,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1742,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1756,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1753,13 +1764,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,9 +1780,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2102,19 +2113,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2123,7 +2134,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2138,7 +2149,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>221</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>222</v>
       </c>
@@ -2175,7 +2186,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2195,7 +2206,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2230,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>219</v>
       </c>
@@ -2234,15 +2245,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>217</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2287,8 +2298,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2333,8 +2344,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2349,7 +2360,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2365,7 +2376,7 @@
         <v>-5.9181858226133893E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2393,7 +2404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2406,10 +2417,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.44576829866540002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.44617852782690237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2422,10 +2433,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.8691221623591315E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-3.8655647819801492E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>218</v>
       </c>
@@ -2441,7 +2452,7 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2454,11 +2465,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.0424446452753099E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.0368890507191832E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2476,919 +2487,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.0919693273475048</v>
+        <v>1.0909653398545929</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.8199488789125082</v>
+        <v>1.8182755664243213</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.4559591031300065</v>
+        <v>1.4546204531394571</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3452,7 +3463,7 @@
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3460,7 +3471,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3468,7 +3479,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3485,7 +3496,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3511,13 +3522,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3567,7 +3578,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3595,7 +3606,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3646,7 +3657,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3674,7 +3685,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3725,7 +3736,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3753,7 +3764,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3804,7 +3815,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3826,7 +3837,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3877,7 +3888,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3899,7 +3910,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3921,7 +3932,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3943,7 +3954,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3971,7 +3982,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3993,7 +4004,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4044,7 +4055,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4146,7 +4157,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4197,7 +4208,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4248,7 +4259,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4350,7 +4361,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4379,7 +4390,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4400,7 +4411,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4421,7 +4432,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4450,7 +4461,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4479,7 +4490,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4508,7 +4519,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4537,7 +4548,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4588,7 +4599,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4617,7 +4628,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4646,7 +4657,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4667,7 +4678,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4718,7 +4729,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4769,7 +4780,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4787,7 +4798,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4838,7 +4849,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4889,7 +4900,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4940,7 +4951,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4991,7 +5002,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5042,7 +5053,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5093,7 +5104,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5144,7 +5155,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5162,7 +5173,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5213,7 +5224,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5264,7 +5275,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5281,7 +5292,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5331,7 +5342,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5381,7 +5392,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5431,7 +5442,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5481,1260 +5492,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6773,7 +6784,7 @@
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6782,11 +6793,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6802,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6825,7 +6836,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6841,7 +6852,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6856,18 +6867,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>6570063.7894961247</v>
+        <v>6570065.1961719198</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22552341324948899</v>
+        <v>0.22552324743108854</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6881,14 +6892,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1273148480829907</v>
+        <v>3.1244401752899789</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6904,13 +6915,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6929,7 +6940,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6954,7 +6965,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6979,7 +6990,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7004,7 +7015,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7027,7 +7038,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7050,7 +7061,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7075,7 +7086,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7095,7 +7106,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7115,7 +7126,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7132,7 +7143,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7152,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7174,7 +7185,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7191,7 +7202,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7213,7 +7224,7 @@
         <v>670433</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7222,7 +7233,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7244,7 +7255,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7273,7 +7284,7 @@
         <v>7.732880115633562</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7306,7 +7317,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7339,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7380,7 +7391,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7399,7 +7410,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7423,7 +7434,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7445,7 +7456,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7470,7 +7481,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7495,7 +7506,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7518,7 +7529,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7542,7 +7553,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7566,7 +7577,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7585,7 +7596,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7604,7 +7615,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7623,7 +7634,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7642,7 +7653,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7664,7 +7675,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7673,7 +7684,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7692,7 +7703,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7711,7 +7722,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7741,7 +7752,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7771,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7797,7 +7808,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7824,20 +7835,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7854,7 +7865,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7864,18 +7875,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.44576829866540002</v>
+        <v>0.44617852782690237</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-1528.5394961236566</v>
+        <v>-1529.9461719184483</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7884,7 +7895,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7895,7 +7906,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7910,7 +7921,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7925,7 +7936,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7939,7 +7950,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7948,7 +7959,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7962,7 +7973,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7983,7 +7994,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8004,7 +8015,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8025,7 +8036,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8040,7 +8051,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8061,7 +8072,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8071,7 +8082,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8085,7 +8096,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8106,7 +8117,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8121,7 +8132,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8142,7 +8153,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8156,7 +8167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8170,7 +8181,7 @@
       </c>
       <c r="F73" s="208"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8185,7 +8196,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8206,7 +8217,7 @@
         <v>0.39325092997635303</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8221,7 +8232,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8242,7 +8253,7 @@
         <v>0.24326660244029483</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8257,7 +8268,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8278,7 +8289,7 @@
         <v>9.5705744879944314E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8299,7 +8310,7 @@
         <v>0.57635255668591923</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8322,7 +8333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>2.3716125582531654E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8364,7 +8375,7 @@
         <v>-0.22481227614881466</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8375,7 +8386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8396,7 +8407,7 @@
         <v>-0.16860920711161098</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8411,7 +8422,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8431,11 +8442,11 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8445,7 +8456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8455,7 +8466,7 @@
       <c r="E90" s="213"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8472,7 +8483,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8490,7 +8501,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8501,45 +8512,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-2340233.417551307</v>
+        <v>-2338081.7407387146</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-1.024179368787105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-1.0232377092999669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2238.363135099411</v>
+        <v>2236.3051207065582</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>9.7959687509341364E-4</v>
+        <v>9.7869620601227889E-4</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5341393.4958096407</v>
+        <v>5336482.4675140558</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.3376065728973083</v>
+        <v>2.3354573112800074</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8548,28 +8559,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2998921.7151232343</v>
+        <v>2996164.4216546346</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3124476072351097</v>
+        <v>1.311240905774028</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>0.9843357054263322</v>
+        <v>0.98343067933052097</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.6405595090438871</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.639051132217535</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8584,28 +8595,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>3654764.6440698486</v>
+        <v>3651404.3500576569</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.5994705990249034</v>
+        <v>1.5980000005048862</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.1996029492686775</v>
+        <v>1.1985000003786648</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.9993382487811293</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.9975000006311077</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>224</v>
       </c>
@@ -8620,28 +8631,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3326843.1795965414</v>
+        <v>3323784.385856146</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>1.4559591031300065</v>
+        <v>1.4546204531394571</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.0919693273475048</v>
+        <v>1.0909653398545929</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.8199488789125082</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.8182755664243213</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779B18B9-1EDB-B948-81BD-EFC316AB50A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5AC9A1-8ECA-4915-ADE0-A17C3648ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -824,16 +813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1288,7 +1277,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
@@ -1344,8 +1333,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,14 +1357,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1400,7 +1389,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1417,7 +1406,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1425,7 +1414,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1472,7 +1461,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1546,7 +1535,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1625,10 +1614,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,16 +1628,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,7 +1701,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,10 +1710,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1731,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,7 +1745,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1764,13 +1753,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1780,9 +1769,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2113,19 +2102,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2134,7 +2123,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2149,7 +2138,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>221</v>
       </c>
@@ -2168,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>222</v>
       </c>
@@ -2186,7 +2175,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2206,7 +2195,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2219,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>219</v>
       </c>
@@ -2245,15 +2234,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>217</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2272,7 +2261,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2286,7 +2275,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2298,8 +2287,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2335,7 +2324,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2344,8 +2333,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2360,7 +2349,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2376,7 +2365,7 @@
         <v>-5.9181858226133893E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2392,7 +2381,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2404,7 +2393,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2417,10 +2406,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.44617852782690237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.44703269989917122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2433,10 +2422,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.8655647819801492E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-3.8581786165361925E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>218</v>
       </c>
@@ -2452,7 +2441,7 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2465,11 +2454,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.0368890507191832E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.0253540063439651E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2487,919 +2476,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.0909653398545929</v>
+        <v>1.0888807672375844</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.8182755664243213</v>
+        <v>1.8148012787293075</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.4546204531394571</v>
+        <v>1.451841022983446</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3463,7 +3452,7 @@
       <selection pane="topRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3471,7 +3460,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3479,7 +3468,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3496,7 +3485,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3522,13 +3511,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3578,7 +3567,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3606,7 +3595,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3657,7 +3646,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3685,7 +3674,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3736,7 +3725,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3764,7 +3753,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3815,7 +3804,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3837,7 +3826,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3888,7 +3877,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3910,7 +3899,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3932,7 +3921,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3954,7 +3943,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3982,7 +3971,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4004,7 +3993,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4055,7 +4044,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4106,7 +4095,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4157,7 +4146,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4208,7 +4197,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4259,7 +4248,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4310,7 +4299,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4361,7 +4350,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4390,7 +4379,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4411,7 +4400,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4432,7 +4421,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4461,7 +4450,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4490,7 +4479,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4519,7 +4508,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4548,7 +4537,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4599,7 +4588,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4628,7 +4617,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4657,7 +4646,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4678,7 +4667,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4729,7 +4718,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4780,7 +4769,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4798,7 +4787,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4849,7 +4838,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4900,7 +4889,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4951,7 +4940,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5002,7 +4991,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5053,7 +5042,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5104,7 +5093,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5155,7 +5144,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5173,7 +5162,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5224,7 +5213,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5275,7 +5264,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5292,7 +5281,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5342,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5392,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5442,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5492,1260 +5481,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6784,7 +6773,7 @@
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6793,11 +6782,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6813,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6836,7 +6825,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6852,7 +6841,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6867,18 +6856,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>6570065.1961719198</v>
+        <v>6570068.1251279553</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22552324743108854</v>
+        <v>0.22552290216688009</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6892,14 +6881,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1244401752899789</v>
+        <v>3.1184715111089223</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6915,13 +6904,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6940,7 +6929,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6965,7 +6954,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6990,7 +6979,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7015,7 +7004,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7038,7 +7027,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7061,7 +7050,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7086,7 +7075,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7106,7 +7095,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7126,7 +7115,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7143,7 +7132,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7185,7 +7174,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7202,7 +7191,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7224,7 +7213,7 @@
         <v>670433</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7233,7 +7222,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7255,7 +7244,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7284,7 +7273,7 @@
         <v>7.732880115633562</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7317,7 +7306,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7350,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7391,7 +7380,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7410,7 +7399,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7434,7 +7423,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7456,7 +7445,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7481,7 +7470,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7506,7 +7495,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7529,7 +7518,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7553,7 +7542,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7577,7 +7566,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7596,7 +7585,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7615,7 +7604,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7634,7 +7623,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7653,7 +7642,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7675,7 +7664,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7684,7 +7673,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7703,7 +7692,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7722,7 +7711,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7752,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7782,7 +7771,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7808,7 +7797,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7835,20 +7824,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7865,7 +7854,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7875,18 +7864,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.44617852782690237</v>
+        <v>0.44703269989917122</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-1529.9461719184483</v>
+        <v>-1532.875127954258</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7895,7 +7884,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7906,7 +7895,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7921,7 +7910,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7936,7 +7925,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7950,7 +7939,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7959,7 +7948,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7973,7 +7962,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7994,7 +7983,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8015,7 +8004,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8036,7 +8025,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8051,7 +8040,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8072,7 +8061,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8082,7 +8071,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8096,7 +8085,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8117,7 +8106,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8132,7 +8121,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8153,7 +8142,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8167,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8181,7 +8170,7 @@
       </c>
       <c r="F73" s="208"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8196,7 +8185,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8217,7 +8206,7 @@
         <v>0.39325092997635303</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8232,7 +8221,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8253,7 +8242,7 @@
         <v>0.24326660244029483</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8268,7 +8257,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8289,7 +8278,7 @@
         <v>9.5705744879944314E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8310,7 +8299,7 @@
         <v>0.57635255668591923</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8333,7 +8322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>2.3716125582531654E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8375,7 +8364,7 @@
         <v>-0.22481227614881466</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8407,7 +8396,7 @@
         <v>-0.16860920711161098</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8422,7 +8411,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8442,11 +8431,11 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8456,7 +8445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8466,7 +8455,7 @@
       <c r="E90" s="213"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8483,7 +8472,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8501,7 +8490,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8512,45 +8501,45 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-2338081.7407387146</v>
+        <v>-2333614.2283485215</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-1.0232377092999669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1.0212825479107137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2236.3051207065582</v>
+        <v>2232.0320789813995</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>9.7869620601227889E-4</v>
+        <v>9.7682615273295549E-4</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5336482.4675140558</v>
+        <v>5326285.7318190355</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.3354573112800074</v>
+        <v>2.3309948135438874</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8559,28 +8548,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2996164.4216546346</v>
+        <v>2990439.4713915326</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.311240905774028</v>
+        <v>1.3087354394804407</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>0.98343067933052097</v>
+        <v>0.98155157961033046</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.639051132217535</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.6359192993505509</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8595,28 +8584,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>3651404.3500576569</v>
+        <v>3644427.3937386135</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.5980000005048862</v>
+        <v>1.5949466064864513</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.1985000003786648</v>
+        <v>1.1962099548648384</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.9975000006311077</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.9936832581080641</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>224</v>
       </c>
@@ -8631,28 +8620,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3323784.385856146</v>
+        <v>3317433.432565073</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>1.4546204531394571</v>
+        <v>1.451841022983446</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.0909653398545929</v>
+        <v>1.0888807672375844</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.8182755664243213</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.8148012787293075</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5AC9A1-8ECA-4915-ADE0-A17C3648ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE492BF8-205E-4295-9AAB-4660EF6857A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>1.7999999523162842</v>
+        <v>1.7799999713897705</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>4112.9709974434745</v>
+        <v>4067.2713620660847</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
@@ -2234,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.44703269989917122</v>
+        <v>0.44218799174748896</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.8581786165361925E-2</v>
+        <v>-3.9004496635637494E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.0253540063439651E-2</v>
+        <v>6.0913690999604739E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2482,16 +2482,16 @@
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.0888807672375844</v>
+        <v>1.0885795630107911</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.8148012787293075</v>
+        <v>1.8142992716846518</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.451841022983446</v>
+        <v>1.4514394173477214</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6863,11 +6863,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>6570068.1251279553</v>
+        <v>6570051.5126237031</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22552290216688009</v>
+        <v>0.22552486044247722</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6888,7 +6888,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>3.1184715111089223</v>
+        <v>3.1176010022490788</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7864,11 +7864,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.44703269989917122</v>
+        <v>0.44218799174748902</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-1532.875127954258</v>
+        <v>-1516.2626237021398</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8507,11 +8507,11 @@
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>-2333614.2283485215</v>
+        <v>-2332968.7082048724</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>-1.0212825479107137</v>
+        <v>-1.0210000425809873</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8520,11 +8520,11 @@
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>2232.0320789813995</v>
+        <v>2231.4146583080292</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>9.7682615273295549E-4</v>
+        <v>9.7655594485079032E-4</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
@@ -8535,11 +8535,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5326285.7318190355</v>
+        <v>5324812.3843012871</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.3309948135438874</v>
+        <v>2.3303500179780197</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>143</v>
@@ -8554,19 +8554,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2990439.4713915326</v>
+        <v>2989612.2614381067</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3087354394804407</v>
+        <v>1.3083734194521819</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>0.98155157961033046</v>
+        <v>0.98128006458913641</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.6359192993505509</v>
+        <v>1.6354667743152274</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8590,19 +8590,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>3644427.3937386135</v>
+        <v>3643419.2788299262</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>1.5949466064864513</v>
+        <v>1.5945054152432609</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.1962099548648384</v>
+        <v>1.1958790614324457</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.9936832581080641</v>
+        <v>1.9931317690540762</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8626,19 +8626,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3317433.432565073</v>
+        <v>3316515.7701340159</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>1.451841022983446</v>
+        <v>1.4514394173477214</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.0888807672375844</v>
+        <v>1.0885795630107911</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>1.8148012787293075</v>
+        <v>1.8142992716846518</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5183AE2-68C0-4444-BF22-7DD2B70922E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FED325-68B6-49E7-A8DA-9FC3F24E51D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.7799999713897701</v>
+        <v>1.7400000095367432</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>4067.2713620660838</v>
+        <v>3975.8720913113052</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2561,7 +2561,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2607,7 +2607,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44393368539805655</v>
+        <v>0.43432871705991183</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-3.885111809203956E-2</v>
+        <v>-3.9710291673058125E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0674158278596423E-2</v>
+        <v>6.2015937779510956E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2758,20 +2758,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2235245333127345</v>
+        <v>1.2569717641094802</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8652702412948374</v>
+        <v>1.9426922665989239</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3246998379056587</v>
+        <v>1.3867805724465831</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.4922161930358699</v>
+        <v>1.554153813279139</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8804,11 +8804,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6318424.6020000009</v>
+        <v>6313026.580424726</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25518654366478988</v>
+        <v>0.25582286036714952</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8829,7 +8829,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9864098503330063</v>
+        <v>2.9813092692177903</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10563,17 +10563,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.885111809203956E-2</v>
+        <v>-3.9710291673058125E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.885111809203956E-2</v>
+        <v>-3.9710291673058125E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.885111809203956E-2</v>
+        <v>-3.9710291673058125E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10614,17 +10614,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0674158278596423E-2</v>
+        <v>6.2015937779510956E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0674158278596423E-2</v>
+        <v>6.2015937779510956E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0674158278596423E-2</v>
+        <v>6.2015937779510956E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10682,14 +10682,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.65654288623209012</v>
+        <v>-0.72623744492770492</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.65654288623209012</v>
+        <v>-0.72623744492770492</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10707,14 +10707,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.6781081756945939</v>
+        <v>1.876388121791863</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.6781081756945939</v>
+        <v>1.876388121791863</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10754,19 +10754,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1102684.4026826324</v>
+        <v>-1264854.0921110648</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.35253127666100215</v>
+        <v>-0.38962068150150009</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.48257862102173177</v>
+        <v>-0.55355053728852932</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.48257862102173177</v>
+        <v>-0.55355053728852932</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10794,16 +10794,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5103629.1000000006</v>
+        <v>5099268.9150283728</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.898518691475727</v>
+        <v>1.8968967294356311</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2335514017361495</v>
+        <v>2.2316432111007427</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10814,23 +10814,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4000944.6973173684</v>
+        <v>3834414.8229173077</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.545987414814725</v>
+        <v>1.5072760479341309</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.4159400704539953</v>
+        <v>1.3433461921471017</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7509727807144178</v>
+        <v>1.6780926738122135</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.1887159758930221</v>
+        <v>2.0976158422652667</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10868,23 +10868,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2818435.3987478958</v>
+        <v>3268018.2092143358</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.90106165181074382</v>
+        <v>1.0066674802848294</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.2334596053573221</v>
+        <v>1.4302149527460646</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.2334596053573221</v>
+        <v>1.4302149527460646</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>1.5418245066966527</v>
+        <v>1.7877686909325807</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10920,23 +10920,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>3026917.865532632</v>
+        <v>3168771.3474386935</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.2235245333127345</v>
+        <v>1.2569717641094802</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3246998379056587</v>
+        <v>1.3867805724465831</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.4922161930358699</v>
+        <v>1.554153813279139</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.8652702412948374</v>
+        <v>1.9426922665989239</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FED325-68B6-49E7-A8DA-9FC3F24E51D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14BAFB1-D6FF-492B-A883-62C4F31364B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.7400000095367432</v>
+        <v>1.6799999475479126</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>3975.8720913113052</v>
+        <v>3838.7729127878224</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.43432871705991183</v>
+        <v>0.42059822372247785</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-3.9710291673058125E-2</v>
+        <v>-4.1006640217801975E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2015937779510956E-2</v>
+        <v>6.4040457552704641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2758,20 +2758,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2569717641094802</v>
+        <v>1.2593560056999957</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9426922665989239</v>
+        <v>1.9477846860781396</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3867805724465831</v>
+        <v>1.3913504913822212</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.554153813279139</v>
+        <v>1.5582277488625116</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8804,11 +8804,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6313026.580424726</v>
+        <v>6294318.9538607476</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25582286036714952</v>
+        <v>0.25802810817473343</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8829,7 +8829,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9813092692177903</v>
+        <v>2.9636661998148535</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10563,17 +10563,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9710291673058125E-2</v>
+        <v>-4.1006640217801975E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9710291673058125E-2</v>
+        <v>-4.1006640217801975E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.9710291673058125E-2</v>
+        <v>-4.1006640217801975E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10614,17 +10614,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2015937779510956E-2</v>
+        <v>6.4040457552704641E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2015937779510956E-2</v>
+        <v>6.4040457552704641E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2015937779510956E-2</v>
+        <v>6.4040457552704641E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10682,14 +10682,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.72623744492770492</v>
+        <v>-0.72134872006819772</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.72623744492770492</v>
+        <v>-0.72134872006819772</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10707,14 +10707,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.876388121791863</v>
+        <v>1.8943412220858271</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.876388121791863</v>
+        <v>1.8943412220858271</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10754,19 +10754,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1264854.0921110648</v>
+        <v>-1252616.6686845711</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.38962068150150009</v>
+        <v>-0.38585111370313441</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.55355053728852932</v>
+        <v>-0.54819495330851709</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.55355053728852932</v>
+        <v>-0.54819495330851709</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10794,16 +10794,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5099268.9150283728</v>
+        <v>5084158.0617163572</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.8968967294356311</v>
+        <v>1.8912755847766261</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2316432111007427</v>
+        <v>2.2250300997372072</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10814,23 +10814,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3834414.8229173077</v>
+        <v>3831541.3930317862</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.5072760479341309</v>
+        <v>1.5054244710734916</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.3433461921471017</v>
+        <v>1.343080631468109</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.6780926738122135</v>
+        <v>1.6768351464286899</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.0976158422652667</v>
+        <v>2.0960439330358622</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10868,23 +10868,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3268018.2092143358</v>
+        <v>3289509.3939262428</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.0066674802848294</v>
+        <v>1.0132875403264998</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.4302149527460646</v>
+        <v>1.4396203512963335</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.4302149527460646</v>
+        <v>1.4396203512963335</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>1.7877686909325807</v>
+        <v>1.799525439120417</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10920,23 +10920,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>3168771.3474386935</v>
+        <v>3179213.5388502879</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.2569717641094802</v>
+        <v>1.2593560056999957</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3867805724465831</v>
+        <v>1.3913504913822212</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.554153813279139</v>
+        <v>1.5582277488625116</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.9426922665989239</v>
+        <v>1.9477846860781396</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14BAFB1-D6FF-492B-A883-62C4F31364B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2355584-7935-4E0F-8830-7B3BF3016C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.6799999475479126</v>
+        <v>1.7699999809265137</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>3838.7729127878224</v>
+        <v>4044.4215443773901</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.42059822372247785</v>
+        <v>0.44379136007655828</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-4.1006640217801975E-2</v>
+        <v>-3.8863577771002356E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4040457552704641E-2</v>
+        <v>6.0693616676980179E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2758,20 +2758,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2593560056999957</v>
+        <v>1.2474117191090512</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9477846860781396</v>
+        <v>1.9270026094708577</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3913504913822212</v>
+        <v>1.3749734134615854</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.5582277488625116</v>
+        <v>1.541602087576686</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8804,11 +8804,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6294318.9538607476</v>
+        <v>6284942.8231000062</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25802810817473343</v>
+        <v>0.25913336285431743</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8829,7 +8829,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9636661998148535</v>
+        <v>2.9548433150900708</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10563,17 +10563,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1006640217801975E-2</v>
+        <v>-3.8863577771002356E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1006640217801975E-2</v>
+        <v>-3.8863577771002356E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1006640217801975E-2</v>
+        <v>-3.8863577771002356E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10614,17 +10614,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4040457552704641E-2</v>
+        <v>6.0693616676980179E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4040457552704641E-2</v>
+        <v>6.0693616676980179E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4040457552704641E-2</v>
+        <v>6.0693616676980179E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10682,14 +10682,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.72134872006819772</v>
+        <v>-0.72944481384785831</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.72134872006819772</v>
+        <v>-0.72944481384785831</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10707,14 +10707,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.8943412220858271</v>
+        <v>1.8647356760364451</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.8943412220858271</v>
+        <v>1.8647356760364451</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10754,19 +10754,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1252616.6686845711</v>
+        <v>-1264788.6125308843</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.38585111370313441</v>
+        <v>-0.3896005114290676</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.54819495330851709</v>
+        <v>-0.55352188081580533</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.54819495330851709</v>
+        <v>-0.55352188081580533</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10794,16 +10794,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5084158.0617163572</v>
+        <v>5076584.6083937082</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.8912755847766261</v>
+        <v>1.8884583066378073</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2250300997372072</v>
+        <v>2.2217156548680088</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10814,23 +10814,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3831541.3930317862</v>
+        <v>3811795.9958628239</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.5054244710734916</v>
+        <v>1.4988577952087399</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.343080631468109</v>
+        <v>1.334936425822002</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.6768351464286899</v>
+        <v>1.6681937740522035</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.0960439330358622</v>
+        <v>2.0852422175652543</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10868,23 +10868,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3289509.3939262428</v>
+        <v>3233276.0527692121</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.0132875403264998</v>
+        <v>0.99596564300936263</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.4396203512963335</v>
+        <v>1.4150104011011688</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.4396203512963335</v>
+        <v>1.4150104011011688</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>1.799525439120417</v>
+        <v>1.768763001376461</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10920,23 +10920,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>3179213.5388502879</v>
+        <v>3141792.1786864894</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.2593560056999957</v>
+        <v>1.2474117191090512</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3913504913822212</v>
+        <v>1.3749734134615854</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.5582277488625116</v>
+        <v>1.541602087576686</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.9477846860781396</v>
+        <v>1.9270026094708577</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/9959.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2355584-7935-4E0F-8830-7B3BF3016C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5FC16D-971F-7F4E-A143-023BD171508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -896,18 +907,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1374,7 +1385,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="257">
@@ -1430,8 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,14 +1465,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,7 +1607,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,13 +1691,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,7 +1739,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1772,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1802,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1839,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,13 +1859,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,13 +1877,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,7 +1964,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1967,7 +1978,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1980,20 +1991,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2372,19 +2383,19 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2393,7 +2404,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2408,7 +2419,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2422,13 +2433,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.7699999809265137</v>
+        <v>1.6399999856948853</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2448,7 +2459,7 @@
       <c r="H4" s="251"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2463,13 +2474,13 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>4044.4215443773901</v>
+        <v>3747.3736420330424</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2495,7 +2506,7 @@
       <c r="H6" s="244"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2512,15 +2523,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2539,7 +2550,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2553,7 +2564,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2565,8 +2576,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2577,7 +2588,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2611,8 +2622,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2627,7 +2638,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2639,10 +2650,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2653,7 +2664,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2665,7 +2676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2678,10 +2689,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.44379136007655828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.41109167079910008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2694,10 +2705,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-3.8863577771002356E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-4.1954924561979204E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>-1.5617094502880811</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2726,11 +2737,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0693616676980179E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.5521402174566451E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2752,923 +2763,923 @@
       </c>
       <c r="H28" s="241"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.2474117191090512</v>
+        <v>1.1539345175717373</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9270026094708577</v>
+        <v>1.9533390005962352</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3749734134615854</v>
+        <v>1.3960000295280339</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.541602087576686</v>
+        <v>1.5626712004769883</v>
       </c>
       <c r="H29" s="242"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3734,20 +3745,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3788,7 +3799,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>236</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>237</v>
       </c>
@@ -3812,7 +3823,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>238</v>
       </c>
@@ -3820,7 +3831,7 @@
         <v>2284983948</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>239</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3847,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>241</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>240</v>
       </c>
@@ -3860,7 +3871,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3868,7 +3879,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3943,7 +3954,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3969,7 +3980,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3995,7 +4006,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4015,7 +4026,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4035,7 +4046,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4055,7 +4066,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4075,7 +4086,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4121,7 +4132,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4156,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4161,7 +4172,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4177,7 +4188,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4201,7 +4212,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4225,7 +4236,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4249,7 +4260,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4273,7 +4284,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4297,7 +4308,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4321,7 +4332,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4337,7 +4348,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4348,7 +4359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4359,7 +4370,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4370,7 +4381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4404,7 +4415,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4416,7 +4427,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4447,7 +4458,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4456,7 +4467,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4466,7 +4477,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4486,7 +4497,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4498,7 +4509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4510,7 +4521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4544,7 +4555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4567,7 +4578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4591,7 +4602,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4602,7 +4613,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4623,13 +4634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
@@ -4637,7 +4648,7 @@
         <v>270468</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4645,19 +4656,19 @@
         <v>18682</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4665,13 +4676,13 @@
         <v>959583</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -4679,19 +4690,19 @@
         <v>74975</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4699,7 +4710,7 @@
         <v>75530</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>242</v>
       </c>
@@ -4707,28 +4718,28 @@
         <v>8486660</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4778,7 +4789,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4786,7 +4797,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4794,7 +4805,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4819,7 +4830,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4848,7 +4859,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4870,7 +4881,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4920,7 +4931,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -5022,7 +5033,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -5073,7 +5084,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5124,7 +5135,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5226,7 +5237,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5277,7 +5288,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5328,7 +5339,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5379,7 +5390,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5430,7 +5441,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5481,7 +5492,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5532,7 +5543,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5583,7 +5594,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5634,7 +5645,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5685,7 +5696,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5736,7 +5747,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5787,7 +5798,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5838,7 +5849,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5889,7 +5900,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5940,7 +5951,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5991,7 +6002,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -6042,7 +6053,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -6093,7 +6104,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6144,7 +6155,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6195,7 +6206,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6246,7 +6257,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6297,7 +6308,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6348,7 +6359,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6399,7 +6410,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6450,7 +6461,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6501,7 +6512,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6552,7 +6563,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6603,7 +6614,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6654,7 +6665,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6705,7 +6716,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6723,7 +6734,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6774,7 +6785,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6825,7 +6836,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6876,7 +6887,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6927,7 +6938,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6978,7 +6989,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -7029,7 +7040,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -7080,7 +7091,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -7098,7 +7109,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7149,7 +7160,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7200,7 +7211,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7217,7 +7228,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7267,7 +7278,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7317,7 +7328,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7367,7 +7378,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7417,1260 +7428,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8714,7 +8725,7 @@
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8722,11 +8733,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8742,7 +8753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8766,7 +8777,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8782,7 +8793,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8797,18 +8808,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6284942.8231000062</v>
+        <v>6286545.7295166319</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.25913336285431743</v>
+        <v>0.25894441286384495</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8822,14 +8833,14 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9548433150900708</v>
+        <v>2.9563507086874061</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8845,13 +8856,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8871,7 +8882,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8896,7 +8907,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8924,7 +8935,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8952,7 +8963,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8980,7 +8991,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -9008,7 +9019,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -9035,7 +9046,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -9057,7 +9068,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -9079,7 +9090,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9100,7 +9111,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9124,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9150,7 +9161,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9171,7 +9182,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9197,7 +9208,7 @@
         <v>670433</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9206,7 +9217,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9228,7 +9239,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9257,7 +9268,7 @@
         <v>6.9669398061449606</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9290,7 +9301,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9323,7 +9334,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9353,7 +9364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9365,7 +9376,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9391,7 +9402,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9418,7 +9429,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9445,7 +9456,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9475,7 +9486,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9502,7 +9513,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9527,7 +9538,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9553,7 +9564,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9579,7 +9590,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9600,7 +9611,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9621,7 +9632,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9642,7 +9653,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9663,7 +9674,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9689,7 +9700,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9698,7 +9709,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9717,7 +9728,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9736,7 +9747,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9766,7 +9777,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9796,7 +9807,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9823,7 +9834,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9850,20 +9861,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9880,7 +9891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9901,7 +9912,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9910,7 +9921,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9921,7 +9932,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9936,7 +9947,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9952,7 +9963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9967,7 +9978,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9976,7 +9987,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9990,7 +10001,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -10011,7 +10022,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -10032,7 +10043,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -10053,7 +10064,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -10068,7 +10079,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -10089,7 +10100,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10099,7 +10110,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10113,7 +10124,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10134,7 +10145,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10149,7 +10160,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10170,7 +10181,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10192,7 +10203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -10211,7 +10222,7 @@
       <c r="I73" s="254"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10232,7 +10243,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10262,7 +10273,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10283,7 +10294,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10313,7 +10324,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10334,7 +10345,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10364,7 +10375,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10394,7 +10405,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10425,7 +10436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10455,7 +10466,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10485,7 +10496,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10506,7 +10517,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10536,7 +10547,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10557,28 +10568,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8863577771002356E-2</v>
+        <v>-4.1954924561979204E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8863577771002356E-2</v>
+        <v>-4.1954924561979204E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.8863577771002356E-2</v>
+        <v>-4.1954924561979204E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10608,32 +10619,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>249</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0693616676980179E-2</v>
+        <v>6.5521402174566451E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0693616676980179E-2</v>
+        <v>6.5521402174566451E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0693616676980179E-2</v>
+        <v>6.5521402174566451E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10643,7 +10654,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10665,7 +10676,7 @@
       <c r="I92" s="253"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10682,24 +10693,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.72944481384785831</v>
+        <v>-0.71778929904636735</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.72944481384785831</v>
+        <v>-0.71778929904636735</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10707,22 +10718,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>1.8647356760364451</v>
+        <v>1.9075608065583038</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>1.8647356760364451</v>
+        <v>1.9075608065583038</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10748,30 +10759,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1264788.6125308843</v>
+        <v>-1244896.4638814235</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.3896005114290676</v>
+        <v>-0.25273997696652606</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.55352188081580533</v>
+        <v>-0.54481628414547767</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.55352188081580533</v>
+        <v>-0.54481628414547767</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10788,57 +10799,57 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>5076584.6083937082</v>
+        <v>5077879.3361696601</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.8884583066378073</v>
+        <v>1.8889399374214824</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2217156548680088</v>
+        <v>2.222282279319391</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3811795.9958628239</v>
+        <v>3832982.8722882364</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.4988577952087399</v>
+        <v>1.6361999604549564</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>1.334936425822002</v>
+        <v>1.3441236532760046</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.6681937740522035</v>
+        <v>1.677465995173913</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.0852422175652543</v>
+        <v>2.0968324939673915</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10862,37 +10873,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3233276.0527692121</v>
+        <v>3308374.3458953789</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>0.99596564300936263</v>
+        <v>0.67166907468851822</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.4150104011011688</v>
+        <v>1.4478764057800633</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.4150104011011688</v>
+        <v>1.4478764057800633</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>1.768763001376461</v>
+        <v>1.809845507225079</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10914,36 +10925,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>3141792.1786864894</v>
+        <v>3189837.6588790836</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.2474117191090512</v>
+        <v>1.1539345175717373</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3749734134615854</v>
+        <v>1.3960000295280339</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.541602087576686</v>
+        <v>1.5626712004769883</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.9270026094708577</v>
+        <v>1.9533390005962352</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
